--- a/2014elections/20141026-senate-finance2014/builds/development/data/maindata.xlsx
+++ b/2014elections/20141026-senate-finance2014/builds/development/data/maindata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="franken_donations" sheetId="1" r:id="rId1"/>
     <sheet name="mcfadden_donations" sheetId="2" r:id="rId2"/>
     <sheet name="source" sheetId="3" r:id="rId3"/>
+    <sheet name="layout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
   <si>
     <t>state_full</t>
   </si>
@@ -363,6 +364,15 @@
   </si>
   <si>
     <t>U.S. Federal Election Commission</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>Total received from state</t>
+  </si>
+  <si>
+    <t>State abbreviation</t>
   </si>
 </sst>
 </file>
@@ -379,7 +389,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,8 +436,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -438,9 +457,19 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,7 +802,7 @@
   <dimension ref="A1:Y113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1403,6 +1432,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2007,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2069,4 +2099,86 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>